--- a/uploads/purchase.xlsx
+++ b/uploads/purchase.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA859D-2A7D-4306-B883-E197F2E06D5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF22331-7FA1-4BE6-816C-C97588E4D728}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>HDPE</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Rate</t>
-  </si>
-  <si>
-    <t>APRIL</t>
   </si>
   <si>
     <t>TSN</t>
@@ -120,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -477,39 +475,39 @@
         <v>9</v>
       </c>
       <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>12</v>
-      </c>
-      <c r="W2" t="s">
-        <v>13</v>
       </c>
       <c r="Z2" t="s">
         <v>3</v>
       </c>
       <c r="AC2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>18</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" s="1">
+        <v>45383</v>
       </c>
       <c r="B3">
         <v>113950</v>

--- a/uploads/purchase.xlsx
+++ b/uploads/purchase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF22331-7FA1-4BE6-816C-C97588E4D728}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42195D46-EE1A-497E-8D1E-058A8A1E538A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -507,100 +507,100 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B3">
-        <v>113950</v>
+        <v>141125</v>
       </c>
       <c r="C3">
-        <v>11232140</v>
+        <v>13810475</v>
       </c>
       <c r="D3">
-        <v>98.570776656428265</v>
+        <v>97.859875996457035</v>
       </c>
       <c r="E3">
-        <v>698</v>
+        <v>1254.9000000000001</v>
       </c>
       <c r="F3">
-        <v>154941</v>
+        <v>264873.09999999998</v>
       </c>
       <c r="G3">
-        <v>221.97851002865329</v>
+        <v>211.07108136106459</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>114648</v>
+        <v>142379.9</v>
       </c>
       <c r="L3">
-        <v>11387081</v>
+        <v>14075348.1</v>
       </c>
       <c r="M3">
-        <v>99.322107668690251</v>
+        <v>98.857690586943804</v>
       </c>
       <c r="N3">
-        <v>705500</v>
+        <v>969809.46</v>
       </c>
       <c r="O3">
-        <v>373440.32</v>
+        <v>252347.47</v>
       </c>
       <c r="P3">
-        <v>0.52932717221828496</v>
+        <v>0.26020314340922185</v>
       </c>
       <c r="Q3">
-        <v>1097</v>
+        <v>298.25</v>
       </c>
       <c r="R3">
-        <v>214349.8</v>
+        <v>56047.8</v>
       </c>
       <c r="S3">
-        <v>195.39635369188696</v>
+        <v>187.9222129086337</v>
       </c>
       <c r="T3">
-        <v>493</v>
+        <v>1200</v>
       </c>
       <c r="U3">
-        <v>103400</v>
+        <v>195285.6</v>
       </c>
       <c r="V3">
-        <v>209.73630831643001</v>
+        <v>162.738</v>
       </c>
       <c r="W3">
-        <v>6800.9</v>
+        <v>5918</v>
       </c>
       <c r="X3">
-        <v>847116</v>
+        <v>759300</v>
       </c>
       <c r="Y3">
-        <v>124.55939655045657</v>
+        <v>128.30348090571138</v>
       </c>
       <c r="Z3">
-        <v>8390.9</v>
+        <v>7416.25</v>
       </c>
       <c r="AA3">
-        <v>1164865.8</v>
+        <v>1010633.4</v>
       </c>
       <c r="AB3">
-        <v>138.824893634771</v>
+        <v>136.27283330524187</v>
       </c>
       <c r="AC3">
-        <v>21761</v>
+        <v>13264.519999999999</v>
       </c>
       <c r="AD3">
-        <v>4835026.7</v>
+        <v>3018545.8</v>
       </c>
       <c r="AE3">
-        <v>222.18770736638942</v>
+        <v>227.56540002955253</v>
       </c>
       <c r="AF3">
-        <v>7124</v>
+        <v>11150</v>
       </c>
       <c r="AG3">
-        <v>860500</v>
+        <v>1378750</v>
       </c>
       <c r="AH3">
-        <v>120.78888265019651</v>
+        <v>123.65470852017937</v>
       </c>
       <c r="AK3">
         <v>98.570776656428265</v>
@@ -618,13 +618,13 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>8390.9</v>
+        <v>7416.25</v>
       </c>
       <c r="AS3">
-        <v>1164865.8</v>
+        <v>1010633.4</v>
       </c>
       <c r="AT3">
-        <v>138.824893634771</v>
+        <v>136.27283330524187</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/purchase.xlsx
+++ b/uploads/purchase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42195D46-EE1A-497E-8D1E-058A8A1E538A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3242F35-12BF-48BC-BA9A-CD6A6D354879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>HDPE</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>TRDNG Purch + Consnmn</t>
+  </si>
+  <si>
+    <t>Other Purchases (Trading PL)</t>
   </si>
 </sst>
 </file>
@@ -400,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AW3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -504,103 +507,112 @@
       <c r="AR2" t="s">
         <v>18</v>
       </c>
+      <c r="AU2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45413</v>
+        <v>45658</v>
       </c>
       <c r="B3">
-        <v>141125</v>
+        <v>110000</v>
       </c>
       <c r="C3">
-        <v>13810475</v>
+        <v>10922850</v>
       </c>
       <c r="D3">
-        <v>97.859875996457035</v>
+        <v>99.298636363636362</v>
       </c>
       <c r="E3">
-        <v>1254.9000000000001</v>
+        <v>1574.7</v>
       </c>
       <c r="F3">
-        <v>264873.09999999998</v>
+        <v>369238.8</v>
       </c>
       <c r="G3">
-        <v>211.07108136106459</v>
+        <v>234.48199657077538</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>13140</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1877.1428571428571</v>
       </c>
       <c r="K3">
-        <v>142379.9</v>
+        <v>111581.7</v>
       </c>
       <c r="L3">
-        <v>14075348.1</v>
+        <v>11305228.800000001</v>
       </c>
       <c r="M3">
-        <v>98.857690586943804</v>
+        <v>101.3179472978096</v>
       </c>
       <c r="N3">
-        <v>969809.46</v>
+        <v>740450</v>
       </c>
       <c r="O3">
-        <v>252347.47</v>
+        <v>359214</v>
       </c>
       <c r="P3">
-        <v>0.26020314340922185</v>
+        <v>0.48512931325545278</v>
       </c>
       <c r="Q3">
-        <v>298.25</v>
+        <v>696</v>
       </c>
       <c r="R3">
-        <v>56047.8</v>
+        <v>138061</v>
       </c>
       <c r="S3">
-        <v>187.9222129086337</v>
+        <v>198.36350574712642</v>
       </c>
       <c r="T3">
-        <v>1200</v>
+        <v>1629.25</v>
       </c>
       <c r="U3">
-        <v>195285.6</v>
+        <v>335482.5</v>
       </c>
       <c r="V3">
-        <v>162.738</v>
+        <v>205.91222955347553</v>
       </c>
       <c r="W3">
-        <v>5918</v>
+        <v>7455.4</v>
       </c>
       <c r="X3">
-        <v>759300</v>
+        <v>1079701</v>
       </c>
       <c r="Y3">
-        <v>128.30348090571138</v>
+        <v>144.82133755398772</v>
       </c>
       <c r="Z3">
-        <v>7416.25</v>
+        <v>9780.65</v>
       </c>
       <c r="AA3">
-        <v>1010633.4</v>
+        <v>1553244.5</v>
       </c>
       <c r="AB3">
-        <v>136.27283330524187</v>
+        <v>158.80790131535227</v>
       </c>
       <c r="AC3">
-        <v>13264.519999999999</v>
+        <v>23650.59</v>
       </c>
       <c r="AD3">
-        <v>3018545.8</v>
+        <v>5593162.5999999996</v>
       </c>
       <c r="AE3">
-        <v>227.56540002955253</v>
+        <v>236.49146173520404</v>
       </c>
       <c r="AF3">
-        <v>11150</v>
+        <v>20175</v>
       </c>
       <c r="AG3">
-        <v>1378750</v>
+        <v>2432350</v>
       </c>
       <c r="AH3">
-        <v>123.65470852017937</v>
+        <v>120.56257744733581</v>
       </c>
       <c r="AK3">
         <v>98.570776656428265</v>
@@ -618,13 +630,22 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>7416.25</v>
+        <v>9780.65</v>
       </c>
       <c r="AS3">
-        <v>1010633.4</v>
+        <v>1553244.5</v>
       </c>
       <c r="AT3">
-        <v>136.27283330524187</v>
+        <v>158.80790131535227</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
